--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>dev2</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>prod</t>
+  </si>
+  <si>
+    <t>PF-release/1.0.1</t>
   </si>
   <si>
     <t>PF-release/0.0.0</t>
@@ -406,13 +409,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355D8E3-C590-4A2A-A887-A05CA4806122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>dev2</t>
   </si>
@@ -28,21 +34,23 @@
     <t>prod</t>
   </si>
   <si>
-    <t>PF-release/1.0.1</t>
-  </si>
-  <si>
-    <t>PF-release/0.0.0</t>
+    <t>PF/1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,23 +76,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -95,10 +100,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -136,71 +141,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -228,7 +233,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -251,11 +256,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -264,13 +269,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -280,7 +285,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -289,7 +294,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -298,7 +303,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -306,10 +311,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -374,51 +379,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,64 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355D8E3-C590-4A2A-A887-A05CA4806122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,21 +52,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,54 +413,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,39 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,81 +68,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,10 +98,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -175,71 +139,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,7 +231,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -290,11 +254,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -303,13 +267,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,7 +283,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -328,7 +292,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,7 +301,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,10 +309,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -413,89 +377,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="3" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>dev2</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>PF/1.0.0</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -68,12 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -381,16 +375,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -421,20 +415,6 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>sit2</t>
-  </si>
-  <si>
-    <t>uat2</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>PF/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev2</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PF/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PF/1.0.7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>sit2</t>
+  </si>
+  <si>
+    <t>uat2</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>PF/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev2</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>PF/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PF/1.0.7</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
